--- a/branches/update-profile-slicing/ValueSet-vs-treatment-dispensed-prescribed.xlsx
+++ b/branches/update-profile-slicing/ValueSet-vs-treatment-dispensed-prescribed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T14:48:32+00:00</t>
+    <t>2022-09-09T09:52:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
